--- a/設計図.xlsx
+++ b/設計図.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanji\Desktop\webproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanji\Desktop\portfolio\webproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538388FC-CFDD-4D06-AE58-926E2F3F8A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2CD432-C2FB-4278-B9E8-FFAF7FB00901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" activeTab="1" xr2:uid="{7C735B09-6A2F-4416-8410-BD7D292B2730}"/>
   </bookViews>
   <sheets>
-    <sheet name="論理設計" sheetId="2" r:id="rId1"/>
-    <sheet name="物理設計" sheetId="3" r:id="rId2"/>
-    <sheet name="必要な画面" sheetId="1" r:id="rId3"/>
+    <sheet name="必要な画面" sheetId="1" r:id="rId1"/>
+    <sheet name="論理設計" sheetId="2" r:id="rId2"/>
+    <sheet name="物理設計" sheetId="3" r:id="rId3"/>
     <sheet name="クラス・メソッド" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="132">
   <si>
     <t>トップページ</t>
     <phoneticPr fontId="1"/>
@@ -758,12 +759,139 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>コメント一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/:user_name/images/:category_name/comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントの一覧と書き込みフォーム</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントの一覧があり、その下にコメントを書き込むフォームがある</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MEDIA_ROOT/images/~~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像名</t>
+    <rPh sb="0" eb="3">
+      <t>ガゾウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>identityV_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーホーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MEDIA_ROOT/user_home/~~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kasane_home</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明文2</t>
+    <rPh sb="0" eb="3">
+      <t>セツメイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>こんにちは！私は日本の高校一年生でWebサイトをつくる練習をしています。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🇯🇵</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webサイトをつくるのは初めてなので見にくかったり不格好だったりすると思いますが、 楽しんでいただけたら嬉しいです！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタアカウント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイッターアカウント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテンツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>colorful_pictures</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>描画がきれい</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,6 +920,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -885,7 +1019,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -909,6 +1043,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1217,120 +1360,464 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55B8320-BEC8-4E1A-B23E-46FBE6FDB3D5}">
-  <dimension ref="B2:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE51B283-755B-4127-8B40-71B8FD06E7A2}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="10.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="67.08203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{5DF74131-6513-49B1-B75E-D162063AF1DF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55B8320-BEC8-4E1A-B23E-46FBE6FDB3D5}">
+  <dimension ref="B2:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" customWidth="1"/>
     <col min="4" max="4" width="42.4140625" customWidth="1"/>
     <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="D3" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="6"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="D4" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="6"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="5"/>
-      <c r="C6" s="3"/>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D8">
+      <c r="D9" s="8">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E9" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="90" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="6" t="s">
+    <row r="10" spans="2:5" ht="90" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E10" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="90" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="6" t="s">
+    <row r="11" spans="2:5" ht="90" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E11" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="6" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" s="8" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1339,12 +1826,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55732195-5BF1-4166-B133-03F1EECC63BE}">
   <dimension ref="B2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1455,213 +1942,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE51B283-755B-4127-8B40-71B8FD06E7A2}">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView zoomScale="105" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.9140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="67.08203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{5DF74131-6513-49B1-B75E-D162063AF1DF}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B5254E-507F-4B50-9FE6-D68CD7866A57}">
   <dimension ref="C3:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1886,4 +2171,17 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8576420-DCF7-47DD-9DBF-F739AAFA3461}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>